--- a/Financials/Yearly/TEX_YR_FIN.xlsx
+++ b/Financials/Yearly/TEX_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773EDC11-66E9-46F2-9C2D-2E67C271307D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="TEX" sheetId="6" r:id="rId1"/>
@@ -301,7 +300,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -442,23 +441,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -494,23 +476,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -686,32 +651,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -741,7 +706,7 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -771,7 +736,7 @@
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -801,7 +766,7 @@
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -831,7 +796,7 @@
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -845,7 +810,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,7 +840,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -905,7 +870,7 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -935,7 +900,7 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,7 +930,7 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -976,7 +941,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,7 +971,7 @@
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1036,7 +1001,7 @@
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1050,7 +1015,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1080,7 +1045,7 @@
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1110,7 +1075,7 @@
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1140,7 +1105,7 @@
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1170,7 +1135,7 @@
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1200,7 +1165,7 @@
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1230,7 +1195,7 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1260,7 +1225,7 @@
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
@@ -1290,7 +1255,7 @@
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1320,7 +1285,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1350,7 +1315,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,7 +1345,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1410,7 +1375,7 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1440,7 +1405,7 @@
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
@@ -1470,7 +1435,7 @@
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1500,7 +1465,7 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
@@ -1530,12 +1495,12 @@
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1565,7 +1530,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1579,7 +1544,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1593,12 +1558,12 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>368000</v>
+        <v>339500</v>
       </c>
       <c r="E41" s="3">
         <v>626500</v>
@@ -1623,7 +1588,7 @@
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1653,12 +1618,12 @@
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>659900</v>
+        <v>535000</v>
       </c>
       <c r="E43" s="3">
         <v>579900</v>
@@ -1683,12 +1648,12 @@
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1212000</v>
+        <v>918900</v>
       </c>
       <c r="E44" s="3">
         <v>969600</v>
@@ -1713,12 +1678,12 @@
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>183100</v>
+        <v>629600</v>
       </c>
       <c r="E45" s="3">
         <v>207000</v>
@@ -1743,7 +1708,7 @@
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
@@ -1773,7 +1738,7 @@
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -1803,12 +1768,12 @@
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>345600</v>
+        <v>317300</v>
       </c>
       <c r="E48" s="3">
         <v>311000</v>
@@ -1833,12 +1798,12 @@
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>278400</v>
+        <v>276600</v>
       </c>
       <c r="E49" s="3">
         <v>287400</v>
@@ -1863,7 +1828,7 @@
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1893,7 +1858,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1923,12 +1888,12 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>438900</v>
+        <v>469000</v>
       </c>
       <c r="E52" s="3">
         <v>481100</v>
@@ -1953,7 +1918,7 @@
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1983,7 +1948,7 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
@@ -2013,7 +1978,7 @@
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2027,7 +1992,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2041,12 +2006,12 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>788200</v>
+        <v>687200</v>
       </c>
       <c r="E57" s="3">
         <v>592400</v>
@@ -2071,12 +2036,12 @@
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>4700</v>
+        <v>4100</v>
       </c>
       <c r="E58" s="3">
         <v>5200</v>
@@ -2101,12 +2066,12 @@
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>421800</v>
+        <v>523400</v>
       </c>
       <c r="E59" s="3">
         <v>437900</v>
@@ -2131,7 +2096,7 @@
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
@@ -2161,12 +2126,12 @@
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1214700</v>
+        <v>1210600</v>
       </c>
       <c r="E61" s="3">
         <v>979600</v>
@@ -2191,12 +2156,12 @@
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>195500</v>
+        <v>113100</v>
       </c>
       <c r="E62" s="3">
         <v>223900</v>
@@ -2221,7 +2186,7 @@
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2251,7 +2216,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2281,7 +2246,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2311,7 +2276,7 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
@@ -2341,7 +2306,7 @@
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2355,7 +2320,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2385,7 +2350,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2415,7 +2380,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2445,7 +2410,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2475,7 +2440,7 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
@@ -2505,7 +2470,7 @@
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2535,7 +2500,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2565,7 +2530,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2595,7 +2560,7 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
@@ -2625,7 +2590,7 @@
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2655,12 +2620,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2690,7 +2655,7 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
@@ -2720,7 +2685,7 @@
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2734,7 +2699,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -2764,7 +2729,7 @@
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2794,7 +2759,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2824,7 +2789,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2854,7 +2819,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2884,7 +2849,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2914,7 +2879,7 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
@@ -2944,7 +2909,7 @@
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2958,7 +2923,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -2988,7 +2953,7 @@
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3018,7 +2983,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3048,7 +3013,7 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
@@ -3078,7 +3043,7 @@
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3092,7 +3057,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -3122,7 +3087,7 @@
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3152,7 +3117,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3182,7 +3147,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3212,7 +3177,7 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
@@ -3242,7 +3207,7 @@
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -3272,7 +3237,7 @@
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
